--- a/biology/Médecine/Muscle_ptérygoïdien_latéral/Muscle_ptérygoïdien_latéral.xlsx
+++ b/biology/Médecine/Muscle_ptérygoïdien_latéral/Muscle_ptérygoïdien_latéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_pt%C3%A9rygo%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_ptérygoïdien_latéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle ptérygoïdien latéral (musculus pterygoideus lateralis en latin) ou muscle ptérygoïdien externe est un muscle pair de forme triangulaire faisant partie de l'appareil manducateur et situé dans la fosse infratemporale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_pt%C3%A9rygo%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_ptérygoïdien_latéral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Insertion dorsale : il s'insère sur
 la partie antérieure et médiale du col du condyle de la mandibule ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_pt%C3%A9rygo%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_ptérygoïdien_latéral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le nerf ptérygoïdien latéral, qui possède une grande variabilité. Il émerge généralement du tronc antérieur du nerf mandibulaire ou d'une de ses branches, le nerf buccal.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_pt%C3%A9rygo%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_ptérygoïdien_latéral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par des branches de l'artère ptérygoïdienne, branche de l'artère maxillaire.
 Autour de lui se forme une gaine veineuse, le plexus ptérygoïdien.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_pt%C3%A9rygo%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_ptérygoïdien_latéral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa contraction bilatérale provoque une propulsion mandibulaire.
 Sa contraction unilatérale provoque une diduction controlatérale.
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_pt%C3%A9rygo%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_ptérygoïdien_latéral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Latéralement, avec :
 la branche ascendante de la mandibule ;
